--- a/AUTOTS_evaluation_results.xlsx
+++ b/AUTOTS_evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F486"/>
+  <dimension ref="A1:F476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -496,12 +496,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -524,12 +524,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -552,12 +552,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -580,12 +580,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Republic of Moldova</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -608,12 +608,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,12 +636,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Republic of Moldova</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -692,7 +692,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -720,12 +720,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -804,12 +804,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -860,12 +860,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -888,12 +888,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -916,12 +916,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Micronesia (Federated States of)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -1000,7 +1000,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1028,12 +1028,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Micronesia (Federated States of)</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1056,12 +1056,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1112,12 +1112,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -1224,12 +1224,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1252,12 +1252,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Micronesia (Federated States of)</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -1336,12 +1336,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -1364,12 +1364,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -1392,12 +1392,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -1420,12 +1420,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1448,12 +1448,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -1476,12 +1476,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1532,7 +1532,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -1560,12 +1560,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -1588,12 +1588,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -1616,12 +1616,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -1644,12 +1644,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -1672,12 +1672,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1700,7 +1700,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -1728,7 +1728,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1756,12 +1756,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -1784,12 +1784,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1812,12 +1812,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1840,12 +1840,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1868,12 +1868,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1896,12 +1896,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -1924,12 +1924,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -1980,7 +1980,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -2008,12 +2008,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2058,18 +2058,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2092,12 +2092,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -2120,12 +2120,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -2148,12 +2148,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2204,12 +2204,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -2232,12 +2232,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2260,12 +2260,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2288,12 +2288,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2344,12 +2344,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -2372,12 +2372,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2400,12 +2400,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -2428,12 +2428,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -2456,12 +2456,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2484,12 +2484,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2512,12 +2512,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -2568,12 +2568,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2583,25 +2583,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2611,25 +2611,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -2652,12 +2652,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2680,12 +2680,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -2708,12 +2708,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Micronesia (Federated States of)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -2736,7 +2736,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Venezuela (Bolivarian Republic of)</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -2764,12 +2764,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -2792,12 +2792,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2820,12 +2820,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -2876,12 +2876,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2904,12 +2904,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -2932,12 +2932,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2960,12 +2960,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -2988,7 +2988,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -3016,12 +3016,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Venezuela (Bolivarian Republic of)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -3044,12 +3044,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3072,12 +3072,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -3156,12 +3156,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -3184,12 +3184,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -3212,12 +3212,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -3240,7 +3240,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -3268,12 +3268,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -3296,12 +3296,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -3324,12 +3324,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -3352,12 +3352,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -3408,7 +3408,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -3464,12 +3464,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3492,12 +3492,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -3548,7 +3548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -3576,12 +3576,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -3660,12 +3660,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -3688,12 +3688,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3716,12 +3716,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3772,12 +3772,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -3800,12 +3800,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -3828,7 +3828,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3843,25 +3843,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3884,12 +3884,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -3912,12 +3912,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3940,12 +3940,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -3968,12 +3968,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3996,12 +3996,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -4024,7 +4024,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Cape Verde</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -4080,12 +4080,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -4136,12 +4136,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -4164,7 +4164,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E134" t="b">
@@ -4192,12 +4192,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -4220,12 +4220,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4248,12 +4248,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cape Verde</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E137" t="b">
@@ -4276,12 +4276,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4304,12 +4304,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4319,25 +4319,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4354,18 +4354,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -4388,12 +4388,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E143" t="b">
@@ -4444,12 +4444,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -4472,12 +4472,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -4500,12 +4500,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E146" t="b">
@@ -4528,12 +4528,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E147" t="b">
@@ -4556,12 +4556,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E148" t="b">
@@ -4584,12 +4584,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4640,12 +4640,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4668,12 +4668,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E152" t="b">
@@ -4696,12 +4696,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E153" t="b">
@@ -4724,7 +4724,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E154" t="b">
@@ -4752,12 +4752,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4780,12 +4780,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E156" t="b">
@@ -4808,12 +4808,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4836,12 +4836,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4851,20 +4851,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4879,25 +4879,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E160" t="b">
@@ -4948,12 +4948,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Micronesia (Federated States of)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E162" t="b">
@@ -5004,12 +5004,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5032,12 +5032,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5060,12 +5060,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E166" t="b">
@@ -5088,12 +5088,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E167" t="b">
@@ -5116,12 +5116,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5144,12 +5144,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E169" t="b">
@@ -5172,12 +5172,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5200,12 +5200,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E171" t="b">
@@ -5228,12 +5228,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Micronesia (Federated States of)</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E172" t="b">
@@ -5256,12 +5256,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5284,12 +5284,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5312,12 +5312,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5340,12 +5340,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5368,12 +5368,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5383,20 +5383,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5418,18 +5418,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Cape Verde</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E179" t="b">
@@ -5452,12 +5452,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5480,12 +5480,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E181" t="b">
@@ -5508,7 +5508,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cape Verde</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E182" t="b">
@@ -5536,12 +5536,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Other camelids</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E183" t="b">
@@ -5564,12 +5564,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other camelids</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E184" t="b">
@@ -5592,12 +5592,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E185" t="b">
@@ -5620,12 +5620,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E186" t="b">
@@ -5648,12 +5648,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E187" t="b">
@@ -5676,12 +5676,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E188" t="b">
@@ -5704,12 +5704,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5732,12 +5732,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5775,20 +5775,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5810,18 +5810,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E194" t="b">
@@ -5872,7 +5872,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E195" t="b">
@@ -5928,12 +5928,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E197" t="b">
@@ -5984,7 +5984,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6012,12 +6012,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E200" t="b">
@@ -6040,12 +6040,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E201" t="b">
@@ -6068,12 +6068,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6096,12 +6096,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E203" t="b">
@@ -6124,12 +6124,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E204" t="b">
@@ -6152,12 +6152,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6208,12 +6208,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6236,7 +6236,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6320,7 +6320,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E211" t="b">
@@ -6348,7 +6348,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6376,7 +6376,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E213" t="b">
@@ -6432,12 +6432,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E215" t="b">
@@ -6460,12 +6460,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6488,12 +6488,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E217" t="b">
@@ -6516,12 +6516,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6544,7 +6544,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6572,12 +6572,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E220" t="b">
@@ -6600,12 +6600,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E221" t="b">
@@ -6628,12 +6628,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E222" t="b">
@@ -6656,12 +6656,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6684,12 +6684,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6712,12 +6712,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E225" t="b">
@@ -6740,12 +6740,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E226" t="b">
@@ -6768,12 +6768,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E227" t="b">
@@ -6796,12 +6796,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E228" t="b">
@@ -6824,12 +6824,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E229" t="b">
@@ -6852,12 +6852,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E230" t="b">
@@ -6880,12 +6880,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E231" t="b">
@@ -6908,12 +6908,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Republic of Moldova</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6936,12 +6936,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6992,12 +6992,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7020,12 +7020,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E236" t="b">
@@ -7048,12 +7048,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7076,12 +7076,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E238" t="b">
@@ -7104,12 +7104,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Republic of Moldova</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7132,12 +7132,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7147,25 +7147,25 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E240" t="b">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E241" t="b">
@@ -7188,7 +7188,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E242" t="b">
@@ -7216,12 +7216,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E243" t="b">
@@ -7244,12 +7244,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E244" t="b">
@@ -7272,12 +7272,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7300,12 +7300,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7328,12 +7328,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E247" t="b">
@@ -7356,12 +7356,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7384,12 +7384,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E249" t="b">
@@ -7412,12 +7412,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E250" t="b">
@@ -7440,12 +7440,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E251" t="b">
@@ -7468,7 +7468,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7496,12 +7496,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E253" t="b">
@@ -7524,12 +7524,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E254" t="b">
@@ -7552,12 +7552,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7580,12 +7580,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E256" t="b">
@@ -7608,12 +7608,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7664,12 +7664,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E259" t="b">
@@ -7692,12 +7692,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7720,12 +7720,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7748,12 +7748,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E262" t="b">
@@ -7776,12 +7776,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E263" t="b">
@@ -7804,12 +7804,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E264" t="b">
@@ -7832,7 +7832,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E265" t="b">
@@ -7860,7 +7860,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -7888,12 +7888,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7916,12 +7916,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E268" t="b">
@@ -7944,12 +7944,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E269" t="b">
@@ -7972,12 +7972,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -8000,12 +8000,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E271" t="b">
@@ -8028,12 +8028,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -8056,7 +8056,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -8084,12 +8084,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -8112,12 +8112,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -8140,12 +8140,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -8168,7 +8168,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -8224,12 +8224,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E279" t="b">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E280" t="b">
@@ -8280,12 +8280,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8308,12 +8308,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Venezuela (Bolivarian Republic of)</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E282" t="b">
@@ -8336,12 +8336,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Venezuela (Bolivarian Republic of)</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8364,12 +8364,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8392,12 +8392,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8420,7 +8420,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E286" t="b">
@@ -8448,12 +8448,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E287" t="b">
@@ -8476,12 +8476,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E288" t="b">
@@ -8504,12 +8504,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E289" t="b">
@@ -8532,12 +8532,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8560,12 +8560,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E291" t="b">
@@ -8588,12 +8588,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8616,7 +8616,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E293" t="b">
@@ -8644,12 +8644,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E294" t="b">
@@ -8672,12 +8672,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8700,12 +8700,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E296" t="b">
@@ -8728,12 +8728,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E297" t="b">
@@ -8756,12 +8756,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E298" t="b">
@@ -8784,7 +8784,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8812,12 +8812,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8840,12 +8840,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8868,12 +8868,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8896,12 +8896,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8924,12 +8924,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E304" t="b">
@@ -8952,12 +8952,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8980,12 +8980,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E306" t="b">
@@ -9008,12 +9008,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E307" t="b">
@@ -9036,12 +9036,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -9064,12 +9064,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E309" t="b">
@@ -9092,12 +9092,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E310" t="b">
@@ -9120,7 +9120,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -9148,12 +9148,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -9176,12 +9176,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -9204,12 +9204,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E314" t="b">
@@ -9232,12 +9232,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -9260,12 +9260,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -9288,12 +9288,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -9316,12 +9316,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9344,12 +9344,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E319" t="b">
@@ -9372,7 +9372,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -9400,12 +9400,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E321" t="b">
@@ -9428,12 +9428,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -9456,12 +9456,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -9512,12 +9512,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E325" t="b">
@@ -9540,12 +9540,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E326" t="b">
@@ -9568,12 +9568,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E327" t="b">
@@ -9596,12 +9596,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Cook Islands</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E328" t="b">
@@ -9624,7 +9624,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Cook Islands</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E329" t="b">
@@ -9652,12 +9652,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Cape Verde</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E330" t="b">
@@ -9680,12 +9680,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Cape Verde</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E331" t="b">
@@ -9736,12 +9736,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9764,12 +9764,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E334" t="b">
@@ -9792,7 +9792,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E335" t="b">
@@ -9820,12 +9820,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E336" t="b">
@@ -9848,12 +9848,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Cook Islands</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E337" t="b">
@@ -9876,12 +9876,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9904,12 +9904,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Cook Islands</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E339" t="b">
@@ -9932,12 +9932,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9960,12 +9960,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9988,12 +9988,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E342" t="b">
@@ -10016,7 +10016,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -10044,12 +10044,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -10072,12 +10072,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -10100,12 +10100,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -10128,12 +10128,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E347" t="b">
@@ -10156,12 +10156,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E348" t="b">
@@ -10184,7 +10184,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E349" t="b">
@@ -10212,7 +10212,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E350" t="b">
@@ -10240,12 +10240,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -10268,12 +10268,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E352" t="b">
@@ -10296,12 +10296,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -10324,12 +10324,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E354" t="b">
@@ -10352,12 +10352,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -10380,7 +10380,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E356" t="b">
@@ -10408,12 +10408,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -10436,12 +10436,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -10464,7 +10464,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -10492,12 +10492,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E360" t="b">
@@ -10520,12 +10520,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E361" t="b">
@@ -10548,12 +10548,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10576,12 +10576,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E363" t="b">
@@ -10604,12 +10604,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -10632,12 +10632,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E365" t="b">
@@ -10660,12 +10660,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10688,12 +10688,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E367" t="b">
@@ -10716,12 +10716,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -10744,7 +10744,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -10772,7 +10772,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E370" t="b">
@@ -10800,7 +10800,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -10828,12 +10828,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10856,12 +10856,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10884,12 +10884,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E374" t="b">
@@ -10912,12 +10912,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E375" t="b">
@@ -10940,7 +10940,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E376" t="b">
@@ -10968,7 +10968,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E377" t="b">
@@ -10996,12 +10996,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -11024,12 +11024,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E379" t="b">
@@ -11052,12 +11052,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -11080,12 +11080,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E381" t="b">
@@ -11108,12 +11108,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E382" t="b">
@@ -11136,12 +11136,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -11155,21 +11155,19 @@
         </is>
       </c>
       <c r="E383" t="b">
-        <v>0</v>
-      </c>
-      <c r="F383" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -11183,44 +11181,36 @@
         </is>
       </c>
       <c r="E384" t="b">
-        <v>0</v>
-      </c>
-      <c r="F384" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
+          <t>Unknown Model</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
       <c r="E385" t="b">
         <v>0</v>
       </c>
-      <c r="F385" t="n">
-        <v>1</v>
-      </c>
+      <c r="F385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -11235,25 +11225,23 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E386" t="b">
-        <v>0</v>
-      </c>
-      <c r="F386" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -11263,25 +11251,23 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E387" t="b">
-        <v>0</v>
-      </c>
-      <c r="F387" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -11291,25 +11277,23 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E388" t="b">
-        <v>0</v>
-      </c>
-      <c r="F388" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -11319,7 +11303,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E389" t="b">
@@ -11330,38 +11314,34 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
+          <t>Unknown Model</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="E390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -11387,7 +11367,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -11397,7 +11377,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E392" t="b">
@@ -11408,12 +11388,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -11423,7 +11403,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E393" t="b">
@@ -11434,7 +11414,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -11444,24 +11424,28 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Unknown Model</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>AutoTS</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>FBProphet</t>
+        </is>
+      </c>
       <c r="E394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -11482,12 +11466,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -11508,7 +11492,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Micronesia (Federated States of)</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -11534,12 +11518,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -11560,34 +11544,38 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Unknown Model</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr"/>
+          <t>AutoTS</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
       <c r="E399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -11597,7 +11585,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E400" t="b">
@@ -11608,7 +11596,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -11618,28 +11606,24 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
+          <t>Unknown Model</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="E401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -11660,12 +11644,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -11675,7 +11659,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E403" t="b">
@@ -11686,12 +11670,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -11701,7 +11685,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E404" t="b">
@@ -11712,7 +11696,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -11738,7 +11722,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -11764,7 +11748,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -11790,64 +11774,56 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
+          <t>Unknown Model</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
       <c r="E408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
+          <t>Unknown Model</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="E409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11868,34 +11844,38 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Unknown Model</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr"/>
+          <t>AutoTS</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>ARIMA</t>
+        </is>
+      </c>
       <c r="E411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11905,7 +11885,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E412" t="b">
@@ -11916,12 +11896,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11942,12 +11922,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11957,7 +11937,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E414" t="b">
@@ -11968,7 +11948,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -11994,7 +11974,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -12009,7 +11989,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E416" t="b">
@@ -12020,12 +12000,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -12035,7 +12015,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E417" t="b">
@@ -12046,56 +12026,64 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Unknown Model</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr"/>
+          <t>AutoTS</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
       <c r="E418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Unknown Model</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr"/>
+          <t>AutoTS</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
       <c r="E419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -12116,12 +12104,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -12142,12 +12130,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -12168,12 +12156,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -12194,12 +12182,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -12209,7 +12197,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E424" t="b">
@@ -12220,12 +12208,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -12235,7 +12223,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E425" t="b">
@@ -12246,7 +12234,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -12261,7 +12249,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E426" t="b">
@@ -12272,12 +12260,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -12287,7 +12275,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E427" t="b">
@@ -12298,12 +12286,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -12324,7 +12312,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -12339,7 +12327,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E429" t="b">
@@ -12350,12 +12338,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -12365,7 +12353,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E430" t="b">
@@ -12376,12 +12364,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -12402,12 +12390,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -12417,7 +12405,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E432" t="b">
@@ -12428,12 +12416,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -12454,12 +12442,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -12480,12 +12468,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -12495,7 +12483,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E435" t="b">
@@ -12506,12 +12494,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -12521,7 +12509,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E436" t="b">
@@ -12532,12 +12520,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -12547,7 +12535,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E437" t="b">
@@ -12558,12 +12546,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -12584,12 +12572,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -12599,7 +12587,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E439" t="b">
@@ -12610,12 +12598,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -12625,7 +12613,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E440" t="b">
@@ -12636,12 +12624,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -12662,12 +12650,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -12688,7 +12676,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -12714,7 +12702,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -12740,7 +12728,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -12755,7 +12743,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E445" t="b">
@@ -12766,12 +12754,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12792,7 +12780,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -12807,7 +12795,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E447" t="b">
@@ -12818,12 +12806,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Micronesia (Federated States of)</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12844,12 +12832,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12859,7 +12847,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E449" t="b">
@@ -12870,12 +12858,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Niue</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Camels</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12896,12 +12884,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Horses</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12922,12 +12910,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12937,7 +12925,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E452" t="b">
@@ -12948,38 +12936,34 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
+          <t>Unknown Model</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
       <c r="E453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12989,7 +12973,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E454" t="b">
@@ -13000,7 +12984,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -13015,7 +12999,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E455" t="b">
@@ -13026,12 +13010,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -13041,7 +13025,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E456" t="b">
@@ -13052,12 +13036,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -13067,7 +13051,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E457" t="b">
@@ -13078,12 +13062,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -13104,12 +13088,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Niue</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -13119,7 +13103,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>ETS</t>
+          <t>ARIMA</t>
         </is>
       </c>
       <c r="E459" t="b">
@@ -13130,12 +13114,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Horses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -13145,7 +13129,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>FBProphet</t>
         </is>
       </c>
       <c r="E460" t="b">
@@ -13156,12 +13140,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -13171,7 +13155,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E461" t="b">
@@ -13182,34 +13166,38 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Unknown Model</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr"/>
+          <t>AutoTS</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
       <c r="E462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -13219,7 +13207,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E463" t="b">
@@ -13230,12 +13218,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Goats</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -13245,7 +13233,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E464" t="b">
@@ -13256,12 +13244,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -13271,7 +13259,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E465" t="b">
@@ -13282,12 +13270,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Asses</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -13308,12 +13296,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Swine / pigs</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -13323,7 +13311,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E467" t="b">
@@ -13334,7 +13322,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -13349,7 +13337,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>ARIMA</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E468" t="b">
@@ -13360,7 +13348,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Tokelau</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -13375,7 +13363,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>FBProphet</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="E469" t="b">
@@ -13386,12 +13374,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Swine / pigs</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -13412,12 +13400,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -13438,12 +13426,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -13464,12 +13452,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -13490,12 +13478,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Asses</t>
+          <t>Camels</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -13516,7 +13504,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -13542,12 +13530,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -13564,266 +13552,6 @@
         <v>1</v>
       </c>
       <c r="F476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>Asses</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E477" t="b">
-        <v>1</v>
-      </c>
-      <c r="F477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>Swine / pigs</t>
-        </is>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E478" t="b">
-        <v>1</v>
-      </c>
-      <c r="F478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>Asses</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E479" t="b">
-        <v>1</v>
-      </c>
-      <c r="F479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Tokelau</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>Swine / pigs</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E480" t="b">
-        <v>1</v>
-      </c>
-      <c r="F480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>Camels</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E481" t="b">
-        <v>1</v>
-      </c>
-      <c r="F481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>Türkiye</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>Cattle</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E482" t="b">
-        <v>1</v>
-      </c>
-      <c r="F482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>Türkiye</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>Sheep</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E483" t="b">
-        <v>1</v>
-      </c>
-      <c r="F483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>Camels</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E484" t="b">
-        <v>1</v>
-      </c>
-      <c r="F484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>Sheep</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E485" t="b">
-        <v>1</v>
-      </c>
-      <c r="F485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>Cattle</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>AutoTS</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>ETS</t>
-        </is>
-      </c>
-      <c r="E486" t="b">
-        <v>1</v>
-      </c>
-      <c r="F486" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
